--- a/통합 문서1.xlsx11212민지성.xlsx
+++ b/통합 문서1.xlsx11212민지성.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>관리코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -199,10 +199,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>두번쨰로 높은 중고가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>관리코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -230,6 +226,14 @@
   </si>
   <si>
     <t>이사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번쨰로 높은 중고가(만원)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD1-002</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -287,7 +291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -365,6 +369,19 @@
       </diagonal>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color auto="1"/>
       </left>
@@ -372,8 +389,8 @@
       <top style="thick">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="thick">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -383,21 +400,21 @@
       <top style="thick">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="thick">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thick">
+        <color auto="1"/>
       </right>
       <top style="thick">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="thick">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -421,9 +438,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -432,59 +446,70 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -502,15 +527,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>20053</xdr:colOff>
+      <xdr:colOff>20052</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>145382</xdr:rowOff>
+      <xdr:rowOff>227025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>386014</xdr:colOff>
+      <xdr:colOff>195942</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>280738</xdr:rowOff>
+      <xdr:rowOff>201385</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -519,8 +544,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="145382" y="145382"/>
-          <a:ext cx="4341395" cy="957514"/>
+          <a:off x="145238" y="227025"/>
+          <a:ext cx="4149175" cy="790789"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
           <a:avLst/>
@@ -628,15 +653,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>636985</xdr:colOff>
+      <xdr:colOff>386614</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>363141</xdr:rowOff>
+      <xdr:rowOff>374026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>592930</xdr:colOff>
+      <xdr:colOff>342559</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>186710</xdr:rowOff>
+      <xdr:rowOff>197595</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -660,8 +685,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4726782" y="363141"/>
-          <a:ext cx="2116929" cy="645100"/>
+          <a:off x="4485085" y="374026"/>
+          <a:ext cx="2116760" cy="639998"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -948,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -968,313 +993,349 @@
   <sheetData>
     <row r="1" spans="2:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I2" s="18"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:15" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="12">
         <v>2870</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="13">
         <v>16.100000000000001</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="14">
         <v>26037</v>
       </c>
-      <c r="I5" s="5">
-        <f>_xlfn.RANK.EQ(G5,G5:$G$12)</f>
-        <v>4</v>
-      </c>
-      <c r="J5" s="4"/>
+      <c r="I5" s="3" t="str">
+        <f>_xlfn.RANK.EQ(G5,G5:$G$12)&amp;"위"</f>
+        <v>4위</v>
+      </c>
+      <c r="J5" s="5" t="str">
+        <f t="shared" ref="J5:J12" si="0">IF(MID(B5,3,1)="1","서울",IF(MID(B5,3,1)="2","경기/인천","기타"))</f>
+        <v>서울</v>
+      </c>
     </row>
     <row r="6" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="12">
         <v>2650</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="13">
         <v>19.5</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="14">
         <v>94160</v>
       </c>
-      <c r="I6" s="5">
-        <f>_xlfn.RANK.EQ(G6,G6:$G$12)</f>
-        <v>1</v>
-      </c>
-      <c r="J6" s="4"/>
+      <c r="I6" s="3" t="str">
+        <f>_xlfn.RANK.EQ(G6,G6:$G$12)&amp;"위"</f>
+        <v>1위</v>
+      </c>
+      <c r="J6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>경기/인천</v>
+      </c>
     </row>
     <row r="7" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="12">
         <v>4030</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="13">
         <v>13.3</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="14">
         <v>133411</v>
       </c>
-      <c r="I7" s="5">
-        <f>_xlfn.RANK.EQ(G7,G7:$G$12)</f>
-        <v>4</v>
-      </c>
-      <c r="J7" s="4"/>
+      <c r="I7" s="3" t="str">
+        <f>_xlfn.RANK.EQ(G7,G7:$G$12)&amp;"위"</f>
+        <v>4위</v>
+      </c>
+      <c r="J7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>경기/인천</v>
+      </c>
     </row>
     <row r="8" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="12">
         <v>2060</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="13">
         <v>14.2</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="14">
         <v>96300</v>
       </c>
-      <c r="I8" s="5">
-        <f>_xlfn.RANK.EQ(G8,G8:$G$12)</f>
-        <v>3</v>
-      </c>
-      <c r="J8" s="4"/>
+      <c r="I8" s="3" t="str">
+        <f>_xlfn.RANK.EQ(G8,G8:$G$12)&amp;"위"</f>
+        <v>3위</v>
+      </c>
+      <c r="J8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>서울</v>
+      </c>
     </row>
     <row r="9" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="12">
         <v>2100</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="13">
         <v>17.3</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="14">
         <v>97803</v>
       </c>
-      <c r="I9" s="5">
-        <f>_xlfn.RANK.EQ(G9,G9:$G$12)</f>
-        <v>1</v>
-      </c>
-      <c r="J9" s="4"/>
+      <c r="I9" s="3" t="str">
+        <f>_xlfn.RANK.EQ(G9,G9:$G$12)&amp;"위"</f>
+        <v>1위</v>
+      </c>
+      <c r="J9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>기타</v>
+      </c>
     </row>
     <row r="10" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="12">
         <v>3450</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="13">
         <v>11.4</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="14">
         <v>71715</v>
       </c>
-      <c r="I10" s="5">
-        <f>_xlfn.RANK.EQ(G10,G10:$G$12)</f>
-        <v>2</v>
-      </c>
-      <c r="J10" s="4"/>
+      <c r="I10" s="3" t="str">
+        <f>_xlfn.RANK.EQ(G10,G10:$G$12)&amp;"위"</f>
+        <v>2위</v>
+      </c>
+      <c r="J10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>기타</v>
+      </c>
     </row>
     <row r="11" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="12">
         <v>4660</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="13">
         <v>10.9</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="14">
         <v>7692</v>
       </c>
-      <c r="I11" s="5">
-        <f>_xlfn.RANK.EQ(G11,G11:$G$12)</f>
-        <v>2</v>
-      </c>
-      <c r="J11" s="4"/>
+      <c r="I11" s="3" t="str">
+        <f>_xlfn.RANK.EQ(G11,G11:$G$12)&amp;"위"</f>
+        <v>2위</v>
+      </c>
+      <c r="J11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>경기/인천</v>
+      </c>
     </row>
     <row r="12" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="12">
         <v>3950</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="13">
         <v>16.2</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="14">
         <v>117884</v>
       </c>
-      <c r="I12" s="5">
-        <f>_xlfn.RANK.EQ(G12,G12:$G$12)</f>
-        <v>1</v>
-      </c>
-      <c r="J12" s="4"/>
+      <c r="I12" s="3" t="str">
+        <f>_xlfn.RANK.EQ(G12,G12:$G$12)&amp;"위"</f>
+        <v>1위</v>
+      </c>
+      <c r="J12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>기타</v>
+      </c>
     </row>
     <row r="13" spans="2:15" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="3" t="s">
+      <c r="B13" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="20">
+        <f>SUMIF(D5:D12,"하이브리드",G5:G12)/COUNTIF(D5:D12,"하이브리드")</f>
+        <v>17.850000000000001</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="4">
+        <f>LARGE(중고가,2)</f>
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="6">
+        <f>DSUM(B4:H12,7,D4:D5)</f>
+        <v>194052</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10" t="s">
+      <c r="H14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="4">
+        <f>VLOOKUP(H14,B4:G12,6,0)</f>
+        <v>16.100000000000001</v>
+      </c>
     </row>
     <row r="15" spans="2:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="2:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="N16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="O16" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17" spans="12:15" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L17" s="3"/>
+      <c r="L17" s="16"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -1288,6 +1349,11 @@
     <mergeCell ref="L16:L17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B5:J12">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G5&gt;16</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/통합 문서1.xlsx11212민지성.xlsx
+++ b/통합 문서1.xlsx11212민지성.xlsx
@@ -9,13 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="제1작업" sheetId="1" r:id="rId1"/>
+    <sheet name="제2작업" sheetId="2" r:id="rId2"/>
+    <sheet name="제3작업" sheetId="3" r:id="rId3"/>
+    <sheet name="제4작업" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="중고가">Sheet1!$F$5:$F$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">제2작업!$B$2:$H$10</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">제2작업!$B$14:$C$16</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">제2작업!$B$18:$E$18</definedName>
+    <definedName name="중고가">제1작업!$F$5:$F$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="60">
   <si>
     <t>관리코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -234,6 +240,37 @@
   </si>
   <si>
     <t>HD1-002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대 자동차의 연비(km/L)평균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=100000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이브리드 평균</t>
+  </si>
+  <si>
+    <t>디젤 평균</t>
+  </si>
+  <si>
+    <t>다잴 평균</t>
+  </si>
+  <si>
+    <t>가솔린 평균</t>
+  </si>
+  <si>
+    <t>전체 평균</t>
+  </si>
+  <si>
+    <t>쏘나타 뉴 라이즈</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -246,7 +283,7 @@
     <numFmt numFmtId="176" formatCode="#,##0.0_-"/>
     <numFmt numFmtId="177" formatCode="#,##0&quot;km&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +313,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -291,7 +336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -315,108 +360,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal style="medium">
         <color indexed="64"/>
       </diagonal>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal style="medium">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -424,7 +397,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -437,71 +410,103 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -520,6 +525,3449 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>제1작업!$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B21-4EBB-ABD5-0664A514F617}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>제1작업!$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8B21-4EBB-ABD5-0664A514F617}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>제1작업!$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8B21-4EBB-ABD5-0664A514F617}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>제1작업!$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8B21-4EBB-ABD5-0664A514F617}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>제1작업!$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8B21-4EBB-ABD5-0664A514F617}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>제1작업!$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8B21-4EBB-ABD5-0664A514F617}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>제1작업!$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8B21-4EBB-ABD5-0664A514F617}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>제1작업!$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8B21-4EBB-ABD5-0664A514F617}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>제1작업!$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-8B21-4EBB-ABD5-0664A514F617}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>제1작업!$G$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-8B21-4EBB-ABD5-0664A514F617}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>제1작업!$G$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0"km"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="#,##0.0_-">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-8B21-4EBB-ABD5-0664A514F617}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>제1작업!$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0"km"</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>133411</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-8B21-4EBB-ABD5-0664A514F617}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>제1작업!$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0"km"</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>96300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-8B21-4EBB-ABD5-0664A514F617}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>제1작업!$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0"km"</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>97803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-8B21-4EBB-ABD5-0664A514F617}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>제1작업!$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0"km"</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>71715</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-8B21-4EBB-ABD5-0664A514F617}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>제1작업!$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0"km"</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7692</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-8B21-4EBB-ABD5-0664A514F617}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>제1작업!$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0_-</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-8B21-4EBB-ABD5-0664A514F617}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>제1작업!$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0_-</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-8B21-4EBB-ABD5-0664A514F617}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>제1작업!$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0_-</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>17.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-8B21-4EBB-ABD5-0664A514F617}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>제1작업!$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0_-</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-8B21-4EBB-ABD5-0664A514F617}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>제1작업!$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0_-</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-8B21-4EBB-ABD5-0664A514F617}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1762360655"/>
+        <c:axId val="1917113391"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1762360655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1917113391"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1917113391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1762360655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>제1작업!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>연비
+(km/L)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(제1작업!$C$5,제1작업!$C$7:$C$11)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>쏘나타 뉴 라이즈</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>아쿼녹스</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>티볼리 아미</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>QM3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>더 뉴 가니</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>그랜드 스타렉스</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(제1작업!$G$5,제1작업!$G$7:$G$11)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0_-</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A4C0-4DEF-8D44-15140B7376F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>제1작업!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>주행기록</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(제1작업!$C$5,제1작업!$C$7:$C$11)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>쏘나타 뉴 라이즈</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>아쿼녹스</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>티볼리 아미</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>QM3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>더 뉴 가니</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>그랜드 스타렉스</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(제1작업!$H$5,제1작업!$H$7:$H$11)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0"km"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>26037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>133411</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97803</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7692</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A4C0-4DEF-8D44-15140B7376F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1926362159"/>
+        <c:axId val="1926363407"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1926362159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1926363407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1926363407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.0_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1926362159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>가솔린 및 디젤 차량 현황</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10533474196228618"/>
+          <c:y val="0.10073104200763776"/>
+          <c:w val="0.87929139360724573"/>
+          <c:h val="0.76643048915121292"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>제1작업!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>연비
+(km/L)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(제1작업!$C$5,제1작업!$C$7:$C$11)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>쏘나타 뉴 라이즈</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>아쿼녹스</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>티볼리 아미</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>QM3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>더 뉴 가니</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>그랜드 스타렉스</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(제1작업!$G$5,제1작업!$G$7:$G$11)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0_-</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0128-482B-9B96-5CFE56B06138}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>제1작업!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>주행기록</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(제1작업!$C$5,제1작업!$C$7:$C$11)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>쏘나타 뉴 라이즈</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>아쿼녹스</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>티볼리 아미</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>QM3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>더 뉴 가니</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>그랜드 스타렉스</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(제1작업!$H$5,제1작업!$H$7:$H$11)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0"km"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>26037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>133411</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97803</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7692</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0128-482B-9B96-5CFE56B06138}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1926362159"/>
+        <c:axId val="1926363407"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1926362159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1926363407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1926363407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.0_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1926362159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -659,7 +4107,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>342559</xdr:colOff>
+      <xdr:colOff>342560</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>197595</xdr:rowOff>
     </xdr:to>
@@ -703,6 +4151,103 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>296091</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>348343</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>378279</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>141514</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>372836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>378279</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -973,15 +4518,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G7" activeCellId="3" sqref="C4:C5 G4:H5 C7:C11 G7:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
     <col min="5" max="7" width="9" style="1"/>
     <col min="8" max="8" width="10.375" style="1" bestFit="1" customWidth="1"/>
@@ -993,335 +4538,335 @@
   <sheetData>
     <row r="1" spans="2:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I2" s="10"/>
+      <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:15" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="7" t="s">
+    <row r="3" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:15" ht="27" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="13">
         <v>2870</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="14">
         <v>16.100000000000001</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="15">
         <v>26037</v>
       </c>
-      <c r="I5" s="3" t="str">
+      <c r="I5" s="16" t="str">
         <f>_xlfn.RANK.EQ(G5,G5:$G$12)&amp;"위"</f>
         <v>4위</v>
       </c>
-      <c r="J5" s="5" t="str">
+      <c r="J5" s="12" t="str">
         <f t="shared" ref="J5:J12" si="0">IF(MID(B5,3,1)="1","서울",IF(MID(B5,3,1)="2","경기/인천","기타"))</f>
         <v>서울</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="13">
         <v>2650</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="14">
         <v>19.5</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="15">
         <v>94160</v>
       </c>
-      <c r="I6" s="3" t="str">
+      <c r="I6" s="16" t="str">
         <f>_xlfn.RANK.EQ(G6,G6:$G$12)&amp;"위"</f>
         <v>1위</v>
       </c>
-      <c r="J6" s="5" t="str">
+      <c r="J6" s="12" t="str">
         <f t="shared" si="0"/>
         <v>경기/인천</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="13">
         <v>4030</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="14">
         <v>13.3</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="15">
         <v>133411</v>
       </c>
-      <c r="I7" s="3" t="str">
+      <c r="I7" s="16" t="str">
         <f>_xlfn.RANK.EQ(G7,G7:$G$12)&amp;"위"</f>
         <v>4위</v>
       </c>
-      <c r="J7" s="5" t="str">
+      <c r="J7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>경기/인천</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="13">
         <v>2060</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="14">
         <v>14.2</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="15">
         <v>96300</v>
       </c>
-      <c r="I8" s="3" t="str">
+      <c r="I8" s="16" t="str">
         <f>_xlfn.RANK.EQ(G8,G8:$G$12)&amp;"위"</f>
         <v>3위</v>
       </c>
-      <c r="J8" s="5" t="str">
+      <c r="J8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>서울</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="13">
         <v>2100</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="14">
         <v>17.3</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="15">
         <v>97803</v>
       </c>
-      <c r="I9" s="3" t="str">
+      <c r="I9" s="16" t="str">
         <f>_xlfn.RANK.EQ(G9,G9:$G$12)&amp;"위"</f>
         <v>1위</v>
       </c>
-      <c r="J9" s="5" t="str">
+      <c r="J9" s="12" t="str">
         <f t="shared" si="0"/>
         <v>기타</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="13">
         <v>3450</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="14">
         <v>11.4</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="15">
         <v>71715</v>
       </c>
-      <c r="I10" s="3" t="str">
+      <c r="I10" s="16" t="str">
         <f>_xlfn.RANK.EQ(G10,G10:$G$12)&amp;"위"</f>
         <v>2위</v>
       </c>
-      <c r="J10" s="5" t="str">
+      <c r="J10" s="12" t="str">
         <f t="shared" si="0"/>
         <v>기타</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="13">
         <v>4660</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="14">
         <v>10.9</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="15">
         <v>7692</v>
       </c>
-      <c r="I11" s="3" t="str">
+      <c r="I11" s="16" t="str">
         <f>_xlfn.RANK.EQ(G11,G11:$G$12)&amp;"위"</f>
         <v>2위</v>
       </c>
-      <c r="J11" s="5" t="str">
+      <c r="J11" s="12" t="str">
         <f t="shared" si="0"/>
         <v>경기/인천</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="9" t="s">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="13">
         <v>3950</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="14">
         <v>16.2</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="15">
         <v>117884</v>
       </c>
-      <c r="I12" s="3" t="str">
+      <c r="I12" s="16" t="str">
         <f>_xlfn.RANK.EQ(G12,G12:$G$12)&amp;"위"</f>
         <v>1위</v>
       </c>
-      <c r="J12" s="5" t="str">
+      <c r="J12" s="12" t="str">
         <f t="shared" si="0"/>
         <v>기타</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="21" t="s">
+    <row r="13" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="20">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="16">
         <f>SUMIF(D5:D12,"하이브리드",G5:G12)/COUNTIF(D5:D12,"하이브리드")</f>
         <v>17.850000000000001</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="16" t="s">
+      <c r="F13" s="18"/>
+      <c r="G13" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="4">
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="19">
         <f>LARGE(중고가,2)</f>
         <v>4030</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="15" t="s">
+    <row r="14" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="6">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="16">
         <f>DSUM(B4:H12,7,D4:D5)</f>
         <v>194052</v>
       </c>
       <c r="F14" s="18"/>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="16">
         <f>VLOOKUP(H14,B4:G12,6,0)</f>
         <v>16.100000000000001</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="2:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="6" t="s">
         <v>45</v>
       </c>
       <c r="M16" s="3" t="s">
@@ -1335,7 +4880,7 @@
       </c>
     </row>
     <row r="17" spans="12:15" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L17" s="16"/>
+      <c r="L17" s="5"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -1350,7 +4895,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B5:J12">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$G5&gt;16</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1358,4 +4903,706 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="13">
+        <v>2870</v>
+      </c>
+      <c r="G3" s="14">
+        <v>17.900000000000002</v>
+      </c>
+      <c r="H3" s="15">
+        <v>26037</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="13">
+        <v>2650</v>
+      </c>
+      <c r="G4" s="14">
+        <v>19.5</v>
+      </c>
+      <c r="H4" s="15">
+        <v>94160</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="13">
+        <v>4030</v>
+      </c>
+      <c r="G5" s="14">
+        <v>13.3</v>
+      </c>
+      <c r="H5" s="15">
+        <v>133411</v>
+      </c>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="13">
+        <v>2060</v>
+      </c>
+      <c r="G6" s="14">
+        <v>14.2</v>
+      </c>
+      <c r="H6" s="15">
+        <v>96300</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="13">
+        <v>2100</v>
+      </c>
+      <c r="G7" s="14">
+        <v>17.3</v>
+      </c>
+      <c r="H7" s="15">
+        <v>97803</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="13">
+        <v>3450</v>
+      </c>
+      <c r="G8" s="14">
+        <v>11.4</v>
+      </c>
+      <c r="H8" s="15">
+        <v>71715</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="13">
+        <v>4660</v>
+      </c>
+      <c r="G9" s="14">
+        <v>10.9</v>
+      </c>
+      <c r="H9" s="15">
+        <v>7692</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="13">
+        <v>3950</v>
+      </c>
+      <c r="G10" s="14">
+        <v>16.2</v>
+      </c>
+      <c r="H10" s="15">
+        <v>117884</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="9">
+        <f>DAVERAGE(B2:H10,G2,E2:E3)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="21">
+        <v>2650</v>
+      </c>
+      <c r="E19" s="22">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="21">
+        <v>4030</v>
+      </c>
+      <c r="E20" s="22">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="21">
+        <v>3450</v>
+      </c>
+      <c r="E21" s="22">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="21">
+        <v>3950</v>
+      </c>
+      <c r="E22" s="22">
+        <v>16.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B11:G11"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B3:H10">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$G3&gt;16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H16"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="21">
+        <v>2650</v>
+      </c>
+      <c r="G3" s="22">
+        <v>19.5</v>
+      </c>
+      <c r="H3" s="28">
+        <v>94160</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="21">
+        <v>3950</v>
+      </c>
+      <c r="G4" s="22">
+        <v>16.2</v>
+      </c>
+      <c r="H4" s="28">
+        <v>117884</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="16" t="e">
+        <f>SUBTOTAL(1,E3:E4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F5" s="21">
+        <f>SUBTOTAL(1,F3:F4)</f>
+        <v>3300</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="28">
+        <f>SUBTOTAL(1,H3:H4)</f>
+        <v>106022</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="21">
+        <v>2100</v>
+      </c>
+      <c r="G6" s="22">
+        <v>17.3</v>
+      </c>
+      <c r="H6" s="28">
+        <v>97803</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="21">
+        <v>4660</v>
+      </c>
+      <c r="G7" s="22">
+        <v>10.9</v>
+      </c>
+      <c r="H7" s="28">
+        <v>7692</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="16" t="e">
+        <f>SUBTOTAL(1,E6:E7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F8" s="21">
+        <f>SUBTOTAL(1,F6:F7)</f>
+        <v>3380</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="28">
+        <f>SUBTOTAL(1,H6:H7)</f>
+        <v>52747.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="21">
+        <v>4030</v>
+      </c>
+      <c r="G9" s="22">
+        <v>13.3</v>
+      </c>
+      <c r="H9" s="28">
+        <v>133411</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="16" t="e">
+        <f>SUBTOTAL(1,E9:E9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F10" s="21">
+        <f>SUBTOTAL(1,F9:F9)</f>
+        <v>4030</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="28">
+        <f>SUBTOTAL(1,H9:H9)</f>
+        <v>133411</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="21">
+        <v>2870</v>
+      </c>
+      <c r="G11" s="22">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H11" s="28">
+        <v>26037</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="21">
+        <v>2060</v>
+      </c>
+      <c r="G12" s="22">
+        <v>14.2</v>
+      </c>
+      <c r="H12" s="28">
+        <v>96300</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="21">
+        <v>3450</v>
+      </c>
+      <c r="G13" s="22">
+        <v>11.4</v>
+      </c>
+      <c r="H13" s="28">
+        <v>71715</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="23" t="e">
+        <f>SUBTOTAL(1,E11:E13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F14" s="24">
+        <f>SUBTOTAL(1,F11:F13)</f>
+        <v>2793.3333333333335</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26">
+        <f>SUBTOTAL(1,H11:H13)</f>
+        <v>64684</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="23" t="e">
+        <f>SUBTOTAL(1,E3:E13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F15" s="24">
+        <f>SUBTOTAL(1,F3:F13)</f>
+        <v>3221.25</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26">
+        <f>SUBTOTAL(1,H3:H13)</f>
+        <v>80625.25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D16" s="1"/>
+    </row>
+  </sheetData>
+  <sortState ref="B3:H10">
+    <sortCondition descending="1" ref="D2"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B3:H15">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G3&gt;16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/통합 문서1.xlsx11212민지성.xlsx
+++ b/통합 문서1.xlsx11212민지성.xlsx
@@ -9,15 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="제1작업" sheetId="1" r:id="rId1"/>
+    <sheet name="제2작업" sheetId="2" r:id="rId2"/>
+    <sheet name="제3작업" sheetId="3" r:id="rId3"/>
+    <sheet name="제4작업" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="항목">Sheet1!$E$5:$E$12</definedName>
+    <definedName name="항목">제1작업!$E$5:$E$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -189,6 +195,42 @@
   <si>
     <t>부장</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총합계</t>
+  </si>
+  <si>
+    <t>개수 : 코드</t>
+  </si>
+  <si>
+    <t>떡갈비</t>
+  </si>
+  <si>
+    <t>떡볶이</t>
+  </si>
+  <si>
+    <t>핫도그</t>
+  </si>
+  <si>
+    <t>항목</t>
+  </si>
+  <si>
+    <t>창업비용(원)</t>
+  </si>
+  <si>
+    <t>평균 : 인테리어</t>
+  </si>
+  <si>
+    <t>33000001-43000000</t>
+  </si>
+  <si>
+    <t>43000001-53000000</t>
+  </si>
+  <si>
+    <t>53000001-63000000</t>
+  </si>
+  <si>
+    <t>**</t>
   </si>
 </sst>
 </file>
@@ -197,9 +239,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="0.0%"/>
-    <numFmt numFmtId="178" formatCode="0000\-00\-00"/>
-    <numFmt numFmtId="181" formatCode="#,##0&quot;천&quot;&quot;원&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="0000\-00\-00"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;천&quot;&quot;원&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -239,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -416,13 +458,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -441,20 +522,44 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -462,47 +567,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,6 +639,996 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>핫도그  및 떡갈비 창업비용 현황</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>제1작업!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>창업비용(원)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(제1작업!$C$5:$C$8,제1작업!$C$11:$C$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>한사람</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>홍준표</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>한예지</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>이소영</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>조형준</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>김유진</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(제1작업!$F$5:$F$8,제1작업!$F$11:$F$12)</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>45000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55455500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A44-469D-B8A8-81F9305244F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>제1작업!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>인테리어
+경비</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(제1작업!$C$5:$C$8,제1작업!$C$11:$C$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>한사람</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>홍준표</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>한예지</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>이소영</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>조형준</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>김유진</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(제1작업!$G$5:$G$8,제1작업!$G$11:$G$12)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0"천""원"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5A44-469D-B8A8-81F9305244F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="812018496"/>
+        <c:axId val="812013920"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="812018496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="812013920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="812013920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="812018496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:blipFill>
+      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+      <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+    </a:blipFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -653,6 +1763,293 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>131885</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>36635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>424963</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>21981</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user" refreshedDate="45040.346453472222" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B4:H12" sheet="제1작업"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="코드" numFmtId="0">
+      <sharedItems count="8">
+        <s v="K2661"/>
+        <s v="K3968"/>
+        <s v="T1092"/>
+        <s v="K2154"/>
+        <s v="P1514"/>
+        <s v="P2063"/>
+        <s v="T1536"/>
+        <s v="K3843"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="창업주" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="창업일" numFmtId="177">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20190110" maxValue="20190205"/>
+    </cacheField>
+    <cacheField name="항목" numFmtId="0">
+      <sharedItems count="3">
+        <s v="핫도그"/>
+        <s v="떡갈비"/>
+        <s v="떡볶이"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="창업비용(원)" numFmtId="41">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="38500000" maxValue="62500000" count="8">
+        <n v="45000000"/>
+        <n v="50000000"/>
+        <n v="60000000"/>
+        <n v="55455500"/>
+        <n v="38500000"/>
+        <n v="45500000"/>
+        <n v="62500000"/>
+        <n v="40000000"/>
+      </sharedItems>
+      <fieldGroup base="4">
+        <rangePr autoStart="0" autoEnd="0" startNum="3000001" endNum="75000000" groupInterval="10000000"/>
+        <groupItems count="10">
+          <s v="&lt;3000001"/>
+          <s v="3000001-13000000"/>
+          <s v="13000001-23000000"/>
+          <s v="23000001-33000000"/>
+          <s v="33000001-43000000"/>
+          <s v="43000001-53000000"/>
+          <s v="53000001-63000000"/>
+          <s v="63000001-73000000"/>
+          <s v="73000001-83000000"/>
+          <s v="&gt;83000001"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="인테리어_x000a_경비" numFmtId="178">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8000" maxValue="20000"/>
+    </cacheField>
+    <cacheField name="국산재료_x000a_사용비율" numFmtId="176">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.7" maxValue="0.95"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="8">
+  <r>
+    <x v="0"/>
+    <s v="한사람"/>
+    <n v="20190115"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="10000"/>
+    <n v="0.95"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="홍준표"/>
+    <n v="20190201"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="15000"/>
+    <n v="0.8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="한예지"/>
+    <n v="20190110"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="18000"/>
+    <n v="0.88500000000000001"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="이소영"/>
+    <n v="20190115"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="20000"/>
+    <n v="0.755"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="임용군"/>
+    <n v="20190201"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="8000"/>
+    <n v="0.7"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="임유나"/>
+    <n v="20190205"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="12000"/>
+    <n v="0.85"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="조형준"/>
+    <n v="20190117"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="19500"/>
+    <n v="0.82499999999999996"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="김유진"/>
+    <n v="20190201"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="9500"/>
+    <n v="0.92500000000000004"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="**" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="창업비용(원)" colHeaderCaption="항목">
+  <location ref="B2:H8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField dataField="1" showAll="0">
+      <items count="9">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="177" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0" sortType="descending">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" numFmtId="41" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="178" showAll="0"/>
+    <pivotField numFmtId="176" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="3"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="개수 : 코드" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="평균 : 인테리어" fld="5" subtotal="average" baseField="4" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -918,10 +2315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O17"/>
+  <dimension ref="B3:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F11" activeCellId="3" sqref="C4:C8 C11:C12 F4:G8 F11:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -966,282 +2363,285 @@
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>20190115</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="15">
         <v>45000000</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="18">
         <v>10000</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <v>0.95</v>
       </c>
-      <c r="I5" s="7" t="str">
+      <c r="I5" s="10" t="str">
         <f t="shared" ref="I5:I12" si="0">CHOOSE(MID(B5,2,1),"안산","부천","안양")</f>
         <v>부천</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>20190201</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="15">
         <v>50000000</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="18">
         <v>15000</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="7">
         <v>0.8</v>
       </c>
-      <c r="I6" s="7" t="str">
+      <c r="I6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>안양</v>
       </c>
-      <c r="J6" s="10"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>20190110</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="15">
         <v>60000000</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="18">
         <v>18000</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="7">
         <v>0.88500000000000001</v>
       </c>
-      <c r="I7" s="7" t="str">
+      <c r="I7" s="10" t="str">
         <f t="shared" si="0"/>
         <v>안산</v>
       </c>
-      <c r="J7" s="10"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>20190115</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="15">
         <v>55455500</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="18">
         <v>20000</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="7">
         <v>0.755</v>
       </c>
-      <c r="I8" s="7" t="str">
+      <c r="I8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>부천</v>
       </c>
-      <c r="J8" s="10"/>
+      <c r="J8" s="28"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>20190201</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="15">
         <v>38500000</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="18">
         <v>8000</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="7">
         <v>0.7</v>
       </c>
-      <c r="I9" s="7" t="str">
+      <c r="I9" s="27" t="str">
         <f t="shared" si="0"/>
         <v>안산</v>
       </c>
-      <c r="J9" s="10"/>
+      <c r="J9" s="30"/>
     </row>
     <row r="10" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>20190205</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="15">
         <v>45500000</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="18">
         <v>12000</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="7">
         <v>0.85</v>
       </c>
-      <c r="I10" s="7" t="str">
+      <c r="I10" s="27" t="str">
         <f t="shared" si="0"/>
         <v>부천</v>
       </c>
-      <c r="J10" s="10"/>
+      <c r="J10" s="31"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>20190117</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="15">
         <v>62500000</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="18">
         <v>19500</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="7">
         <v>0.82499999999999996</v>
       </c>
-      <c r="I11" s="7" t="str">
+      <c r="I11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>안산</v>
       </c>
-      <c r="J11" s="10"/>
+      <c r="J11" s="29"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>20190201</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="15">
         <v>40000000</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="18">
         <v>9500</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="7">
         <v>0.92500000000000004</v>
       </c>
-      <c r="I12" s="7" t="str">
+      <c r="I12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>안양</v>
       </c>
-      <c r="J12" s="10"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="12" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="10"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="25"/>
+      <c r="J14" s="17"/>
     </row>
     <row r="16" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="M16" s="21" t="s">
+      <c r="M16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="N16" s="21" t="s">
+      <c r="N16" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="O16" s="21" t="s">
+      <c r="O16" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="12:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L17" s="22"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
+    <row r="17" spans="7:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="26"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+    </row>
+    <row r="20" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G20" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1261,4 +2661,206 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H8"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
+    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="35"/>
+      <c r="C2" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="35"/>
+      <c r="C3" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="37"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="33">
+        <v>1</v>
+      </c>
+      <c r="D5" s="33">
+        <v>9500</v>
+      </c>
+      <c r="E5" s="33">
+        <v>1</v>
+      </c>
+      <c r="F5" s="33">
+        <v>8000</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="33">
+        <v>1</v>
+      </c>
+      <c r="D6" s="33">
+        <v>10000</v>
+      </c>
+      <c r="E6" s="33">
+        <v>1</v>
+      </c>
+      <c r="F6" s="33">
+        <v>12000</v>
+      </c>
+      <c r="G6" s="33">
+        <v>1</v>
+      </c>
+      <c r="H6" s="33">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="33">
+        <v>1</v>
+      </c>
+      <c r="D7" s="33">
+        <v>18000</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="33">
+        <v>2</v>
+      </c>
+      <c r="H7" s="33">
+        <v>19750</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="33">
+        <v>3</v>
+      </c>
+      <c r="D8" s="33">
+        <v>12500</v>
+      </c>
+      <c r="E8" s="33">
+        <v>2</v>
+      </c>
+      <c r="F8" s="33">
+        <v>10000</v>
+      </c>
+      <c r="G8" s="33">
+        <v>3</v>
+      </c>
+      <c r="H8" s="33">
+        <v>18166.666666666668</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/통합 문서1.xlsx11212민지성.xlsx
+++ b/통합 문서1.xlsx11212민지성.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
@@ -18,11 +18,14 @@
     <sheet name="제4작업" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">제2작업!$B$2:$H$10</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">제2작업!$B$14:$C$16</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">제2작업!$B$18:$E$18</definedName>
     <definedName name="항목">제1작업!$E$5:$E$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="50">
   <si>
     <t>코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -181,56 +184,48 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>환인</t>
+    <t>총합계</t>
+  </si>
+  <si>
+    <t>개수 : 코드</t>
+  </si>
+  <si>
+    <t>떡갈비</t>
+  </si>
+  <si>
+    <t>떡볶이</t>
+  </si>
+  <si>
+    <t>핫도그</t>
+  </si>
+  <si>
+    <t>항목</t>
+  </si>
+  <si>
+    <t>창업비용(원)</t>
+  </si>
+  <si>
+    <t>평균 : 인테리어</t>
+  </si>
+  <si>
+    <t>33000001-43000000</t>
+  </si>
+  <si>
+    <t>43000001-53000000</t>
+  </si>
+  <si>
+    <t>53000001-63000000</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>T*</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>담당</t>
+    <t>&lt;=10000</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>총합계</t>
-  </si>
-  <si>
-    <t>개수 : 코드</t>
-  </si>
-  <si>
-    <t>떡갈비</t>
-  </si>
-  <si>
-    <t>떡볶이</t>
-  </si>
-  <si>
-    <t>핫도그</t>
-  </si>
-  <si>
-    <t>항목</t>
-  </si>
-  <si>
-    <t>창업비용(원)</t>
-  </si>
-  <si>
-    <t>평균 : 인테리어</t>
-  </si>
-  <si>
-    <t>33000001-43000000</t>
-  </si>
-  <si>
-    <t>43000001-53000000</t>
-  </si>
-  <si>
-    <t>53000001-63000000</t>
-  </si>
-  <si>
-    <t>**</t>
   </si>
 </sst>
 </file>
@@ -281,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -497,13 +492,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -546,9 +624,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -567,6 +642,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -579,56 +672,377 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="178" formatCode="#,##0&quot;천&quot;&quot;원&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -662,23 +1076,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US"/>
-              <a:t>핫도그  및 떡갈비 창업비용 현황</a:t>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
+              <a:t>핫도그 및 떡갈비의 창업비용 현황</a:t>
             </a:r>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="ko-KR" sz="2000"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -688,8 +1102,10 @@
         <a:solidFill>
           <a:schemeClr val="bg1"/>
         </a:solidFill>
-        <a:ln>
-          <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -698,15 +1114,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
@@ -716,94 +1132,21 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12149730464281919"/>
+          <c:y val="0.14343588174284866"/>
+          <c:w val="0.76611683253000906"/>
+          <c:h val="0.74398826706377075"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>제1작업!$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>창업비용(원)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>(제1작업!$C$5:$C$8,제1작업!$C$11:$C$12)</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>한사람</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>홍준표</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>한예지</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>이소영</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>조형준</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>김유진</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(제1작업!$F$5:$F$8,제1작업!$F$11:$F$12)</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>45000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>55455500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>62500000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5A44-469D-B8A8-81F9305244F8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -884,7 +1227,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5A44-469D-B8A8-81F9305244F8}"/>
+              <c16:uniqueId val="{00000001-5962-4B6F-8D0D-D9F90EC42413}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -896,32 +1239,232 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="812018496"/>
-        <c:axId val="812013920"/>
+        <c:gapWidth val="75"/>
+        <c:axId val="1904857519"/>
+        <c:axId val="1904855855"/>
       </c:barChart>
-      <c:catAx>
-        <c:axId val="812018496"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>제1작업!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>창업비용(원)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-5962-4B6F-8D0D-D9F90EC42413}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                    <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(제1작업!$C$5:$C$8,제1작업!$C$11:$C$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>한사람</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>홍준표</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>한예지</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>이소영</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>조형준</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>김유진</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(제1작업!$F$5:$F$8,제1작업!$F$11:$F$12)</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>45000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55455500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62550000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5962-4B6F-8D0D-D9F90EC42413}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1904858767"/>
+        <c:axId val="1904857935"/>
+      </c:lineChart>
+      <c:valAx>
+        <c:axId val="1904855855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="25000"/>
+          <c:min val="5000"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0&quot;천&quot;&quot;원&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="dk1"/>
             </a:solidFill>
-            <a:round/>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -930,12 +1473,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -945,42 +1485,47 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="812013920"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="1904857519"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5000"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1904857519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1904855855"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="812013920"/>
+        <c:axId val="1904857935"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -989,12 +1534,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1004,10 +1546,26 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="812018496"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="1904858767"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:catAx>
+        <c:axId val="1904858767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1904857935"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:solidFill>
           <a:schemeClr val="bg1"/>
@@ -1034,15 +1592,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
@@ -1075,7 +1633,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100">
+          <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ko-KR"/>
     </a:p>
@@ -1085,6 +1646,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId4"/>
 </c:chartSpace>
 </file>
 
@@ -1769,20 +2331,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>131885</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>36635</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>124557</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>71802</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>424963</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>21981</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>153865</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>139211</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 3"/>
+        <xdr:cNvPr id="3" name="차트 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1798,6 +2360,82 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.47085</cdr:x>
+      <cdr:y>0.16693</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.61131</cdr:x>
+      <cdr:y>0.24945</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="모서리가 둥근 사각형 설명선 2"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3905250" y="770795"/>
+          <a:ext cx="1164982" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 77024"/>
+            <a:gd name="adj2" fmla="val -22115"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>최대 창업비율</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1951,7 +2589,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="**" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="창업비용(원)" colHeaderCaption="항목">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="**" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="창업비용(원)" colHeaderCaption="항목">
   <location ref="B2:H8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0">
@@ -2043,6 +2681,89 @@
     <dataField name="개수 : 코드" fld="0" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="평균 : 인테리어" fld="5" subtotal="average" baseField="4" baseItem="0"/>
   </dataFields>
+  <formats count="13">
+    <format dxfId="12">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="3">
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -2050,6 +2771,19 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E23" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
+  <autoFilter ref="B18:E23"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="코드" dataDxfId="18"/>
+    <tableColumn id="2" name="항목" dataDxfId="17"/>
+    <tableColumn id="3" name="창업비용(원)" dataDxfId="16"/>
+    <tableColumn id="4" name="인테리어_x000a_경비" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2315,10 +3049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O20"/>
+  <dimension ref="B3:J18"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F11" activeCellId="3" sqref="C4:C8 C11:C12 F4:G8 F11:G12"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2326,14 +3060,14 @@
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
     <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:10" ht="27" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2362,7 +3096,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
@@ -2375,10 +3109,10 @@
       <c r="E5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>45000000</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="17">
         <v>10000</v>
       </c>
       <c r="H5" s="7">
@@ -2388,9 +3122,12 @@
         <f t="shared" ref="I5:I12" si="0">CHOOSE(MID(B5,2,1),"안산","부천","안양")</f>
         <v>부천</v>
       </c>
-      <c r="J5" s="8"/>
+      <c r="J5" s="8">
+        <f>_xlfn.RANK.EQ(H5,H5:$H$12)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
@@ -2403,10 +3140,10 @@
       <c r="E6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>50000000</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="17">
         <v>15000</v>
       </c>
       <c r="H6" s="7">
@@ -2416,9 +3153,12 @@
         <f t="shared" si="0"/>
         <v>안양</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="J6" s="8">
+        <f>_xlfn.RANK.EQ(H6,H6:$H$12)</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
@@ -2431,10 +3171,10 @@
       <c r="E7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>60000000</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <v>18000</v>
       </c>
       <c r="H7" s="7">
@@ -2444,9 +3184,12 @@
         <f t="shared" si="0"/>
         <v>안산</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="8">
+        <f>_xlfn.RANK.EQ(H7,H7:$H$12)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
@@ -2459,10 +3202,10 @@
       <c r="E8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>55455500</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <v>20000</v>
       </c>
       <c r="H8" s="7">
@@ -2472,9 +3215,12 @@
         <f t="shared" si="0"/>
         <v>부천</v>
       </c>
-      <c r="J8" s="28"/>
+      <c r="J8" s="21">
+        <f>_xlfn.RANK.EQ(H8,H8:$H$12)</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
@@ -2487,22 +3233,25 @@
       <c r="E9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>38500000</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="17">
         <v>8000</v>
       </c>
       <c r="H9" s="7">
         <v>0.7</v>
       </c>
-      <c r="I9" s="27" t="str">
+      <c r="I9" s="20" t="str">
         <f t="shared" si="0"/>
         <v>안산</v>
       </c>
-      <c r="J9" s="30"/>
+      <c r="J9" s="8">
+        <f>_xlfn.RANK.EQ(H9,H9:$H$12)</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>13</v>
       </c>
@@ -2515,22 +3264,25 @@
       <c r="E10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>45500000</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <v>12000</v>
       </c>
       <c r="H10" s="7">
         <v>0.85</v>
       </c>
-      <c r="I10" s="27" t="str">
+      <c r="I10" s="20" t="str">
         <f t="shared" si="0"/>
         <v>부천</v>
       </c>
-      <c r="J10" s="31"/>
+      <c r="J10" s="21">
+        <f>_xlfn.RANK.EQ(H10,H10:$H$12)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
@@ -2543,10 +3295,10 @@
       <c r="E11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="15">
-        <v>62500000</v>
-      </c>
-      <c r="G11" s="18">
+      <c r="F11" s="14">
+        <v>62550000</v>
+      </c>
+      <c r="G11" s="17">
         <v>19500</v>
       </c>
       <c r="H11" s="7">
@@ -2556,9 +3308,12 @@
         <f t="shared" si="0"/>
         <v>안산</v>
       </c>
-      <c r="J11" s="29"/>
+      <c r="J11" s="22">
+        <f>_xlfn.RANK.EQ(H11,H11:$H$12)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
@@ -2571,10 +3326,10 @@
       <c r="E12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <v>40000000</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <v>9500</v>
       </c>
       <c r="H12" s="7">
@@ -2584,31 +3339,43 @@
         <f t="shared" si="0"/>
         <v>안양</v>
       </c>
-      <c r="J12" s="8"/>
+      <c r="J12" s="8">
+        <f>_xlfn.RANK.EQ(H12,H12:$H$12)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="19" t="s">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="20" t="s">
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="10" t="str">
+        <f>DCOUNTA(B4:H12,4,E4:E5)&amp;"개"</f>
+        <v>3개</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="8"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="8" t="str">
+        <f>MAX(G4:G12)&amp;"개"</f>
+        <v>20000개</v>
+      </c>
     </row>
-    <row r="14" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="21" t="s">
+    <row r="14" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="24"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="15">
+        <f>SUMIF(항목,"떡볶이",F5:F12)/2</f>
+        <v>42000000</v>
+      </c>
+      <c r="F14" s="29"/>
       <c r="G14" s="12" t="s">
         <v>34</v>
       </c>
@@ -2618,38 +3385,17 @@
       <c r="I14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="17"/>
+      <c r="J14" s="16"/>
     </row>
-    <row r="16" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L16" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="O16" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="7:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L17" s="26"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-    </row>
-    <row r="20" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G20" s="32"/>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="L16:L17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -2665,14 +3411,342 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="6">
+        <v>20190115</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="14">
+        <v>45000000</v>
+      </c>
+      <c r="G3" s="17">
+        <v>10000</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6">
+        <v>20190201</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="14">
+        <v>50000000</v>
+      </c>
+      <c r="G4" s="17">
+        <v>15000</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6">
+        <v>20190110</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="14">
+        <v>60000000</v>
+      </c>
+      <c r="G5" s="17">
+        <v>18000</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6">
+        <v>20190115</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="14">
+        <v>55455500</v>
+      </c>
+      <c r="G6" s="17">
+        <v>20000</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6">
+        <v>20190201</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="14">
+        <v>38500000</v>
+      </c>
+      <c r="G7" s="17">
+        <v>8000</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6">
+        <v>20190205</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="14">
+        <v>45500000</v>
+      </c>
+      <c r="G8" s="17">
+        <v>12000</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6">
+        <v>20190117</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="14">
+        <v>62500000</v>
+      </c>
+      <c r="G9" s="17">
+        <v>19500</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6">
+        <v>20190201</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="14">
+        <v>40000000</v>
+      </c>
+      <c r="G10" s="17">
+        <v>9500</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:8" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:5" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="B18" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="35">
+        <v>45000000</v>
+      </c>
+      <c r="E19" s="36">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="35">
+        <v>60000000</v>
+      </c>
+      <c r="E20" s="36">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="35">
+        <v>38500000</v>
+      </c>
+      <c r="E21" s="36">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="35">
+        <v>62500000</v>
+      </c>
+      <c r="E22" s="36">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="39">
+        <v>40000000</v>
+      </c>
+      <c r="E23" s="40">
+        <v>9500</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2681,160 +3755,162 @@
   <dimension ref="B2:H8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="35"/>
-      <c r="C2" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="35"/>
-      <c r="C3" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="37"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="44"/>
+      <c r="G3" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>47</v>
+      <c r="B4" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="33">
+      <c r="B5" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="47">
         <v>1</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="47">
         <v>9500</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="47">
         <v>1</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="47">
         <v>8000</v>
       </c>
-      <c r="G5" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>51</v>
+      <c r="G5" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="33">
+      <c r="B6" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="47">
         <v>1</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="47">
         <v>10000</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="47">
         <v>1</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="47">
         <v>12000</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="47">
         <v>1</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="47">
         <v>15000</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="33">
+      <c r="B7" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="47">
         <v>1</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="47">
         <v>18000</v>
       </c>
-      <c r="E7" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="33">
+      <c r="E7" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="47">
         <v>2</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="47">
         <v>19750</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="33">
+      <c r="B8" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="47">
         <v>3</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="47">
         <v>12500</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="47">
         <v>2</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="47">
         <v>10000</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="47">
         <v>3</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="47">
         <v>18166.666666666668</v>
       </c>
     </row>
@@ -2854,10 +3930,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/통합 문서1.xlsx11212민지성.xlsx
+++ b/통합 문서1.xlsx11212민지성.xlsx
@@ -9,13 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="제1작업" sheetId="1" r:id="rId1"/>
+    <sheet name="제2작업" sheetId="2" r:id="rId2"/>
+    <sheet name="제3작업" sheetId="3" r:id="rId3"/>
+    <sheet name="제4작업" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="소비전력">Sheet1!$G$5:$G$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">제2작업!$B$2:$H$10</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">제2작업!$B$14:$C$16</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">제2작업!$B$18:$E$18</definedName>
+    <definedName name="소비전력">제1작업!$G$5:$G$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="61">
   <si>
     <t>제품코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>순위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,10 +176,6 @@
   </si>
   <si>
     <t>한일전기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기매트 가격 평균</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -216,16 +214,71 @@
   <si>
     <t>싱글</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기메트 가격 평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기요의 가격 평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기요 최대값</t>
+  </si>
+  <si>
+    <t>전기매트 최대값</t>
+  </si>
+  <si>
+    <t>온수매트 최대값</t>
+  </si>
+  <si>
+    <t>온수메트 최대값</t>
+  </si>
+  <si>
+    <t>전체 최대값</t>
+  </si>
+  <si>
+    <t>전기요 개수</t>
+  </si>
+  <si>
+    <t>전기매트 개수</t>
+  </si>
+  <si>
+    <t>온수매트 개수</t>
+  </si>
+  <si>
+    <t>온수메트 개수</t>
+  </si>
+  <si>
+    <t>전체 개수</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="#,##0&quot;원&quot;"/>
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="#,##0&quot;원&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,8 +301,23 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,8 +330,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -416,6 +490,19 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -429,25 +516,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -475,9 +550,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -499,14 +571,84 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -548,7 +690,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -596,7 +738,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>660797</xdr:colOff>
+      <xdr:colOff>555694</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>148828</xdr:rowOff>
     </xdr:to>
@@ -910,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -923,335 +1065,350 @@
     <col min="5" max="5" width="9.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:12" ht="27" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="23">
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="18">
         <v>83300</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="14">
         <v>95</v>
       </c>
-      <c r="H5" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="11" t="str">
+      <c r="H5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="7" t="str">
         <f>_xlfn.RANK.EQ(G5,$G$5:$G$12)&amp;"위"</f>
         <v>7위</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>46</v>
+      <c r="J5" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="23">
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="18">
         <v>151260</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="14">
         <v>190</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="9">
         <v>43936</v>
       </c>
-      <c r="I6" s="11" t="str">
+      <c r="I6" s="7" t="str">
         <f t="shared" ref="I6:I12" si="0">_xlfn.RANK.EQ(G6,$G$5:$G$12)&amp;"위"</f>
         <v>3위</v>
       </c>
-      <c r="J6" s="12" t="str">
+      <c r="J6" s="8" t="str">
         <f>IF(MID(B6,3,1)="1","싱글","더블")</f>
         <v>더블</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="23">
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="18">
         <v>220760</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="14">
         <v>350</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="9">
         <v>44119</v>
       </c>
-      <c r="I7" s="11" t="str">
+      <c r="I7" s="7" t="str">
         <f t="shared" si="0"/>
         <v>1위</v>
       </c>
-      <c r="J7" s="12" t="str">
-        <f t="shared" ref="J6:J12" si="1">IF(MID(B7,3,1)="1","싱글","더블")</f>
+      <c r="J7" s="8" t="str">
+        <f t="shared" ref="J7:J12" si="1">IF(MID(B7,3,1)="1","싱글","더블")</f>
         <v>더블</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="23">
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="18">
         <v>210000</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="14">
         <v>75</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="9">
         <v>44079</v>
       </c>
-      <c r="I8" s="11" t="str">
+      <c r="I8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>8위</v>
       </c>
-      <c r="J8" s="12" t="str">
+      <c r="J8" s="8" t="str">
         <f t="shared" si="1"/>
         <v>싱글</v>
       </c>
-      <c r="L8" s="22"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="23">
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="18">
         <v>80860</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="14">
         <v>240</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="9">
         <v>43711</v>
       </c>
-      <c r="I9" s="11" t="str">
+      <c r="I9" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2위</v>
       </c>
-      <c r="J9" s="12" t="str">
+      <c r="J9" s="8" t="str">
         <f t="shared" si="1"/>
         <v>싱글</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="23">
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="18">
         <v>139860</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="14">
         <v>180</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="9">
         <v>44156</v>
       </c>
-      <c r="I10" s="11" t="str">
+      <c r="I10" s="7" t="str">
         <f t="shared" si="0"/>
         <v>4위</v>
       </c>
-      <c r="J10" s="12" t="str">
+      <c r="J10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>싱글</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="23">
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="18">
         <v>163800</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="14">
         <v>120</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="9">
         <v>43746</v>
       </c>
-      <c r="I11" s="11" t="str">
+      <c r="I11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>6위</v>
       </c>
-      <c r="J11" s="12" t="str">
+      <c r="J11" s="8" t="str">
         <f t="shared" si="1"/>
         <v>더블</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="23">
+      <c r="E12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="18">
         <v>95000</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="14">
         <v>150</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="9">
         <v>44093</v>
       </c>
-      <c r="I12" s="11" t="str">
+      <c r="I12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>5위</v>
       </c>
-      <c r="J12" s="12" t="str">
+      <c r="J12" s="8" t="str">
         <f t="shared" si="1"/>
         <v>더블</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="7">
+        <f>SUMIF(D5:D12,"전기매트",F5:F12)/COUNTIF(D5:D12,"전기매트")</f>
+        <v>167040</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="8">
+        <f>LARGE(F5:F12,2)</f>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="10">
+        <f>DMAX(B4:H12,6,D4:D5)</f>
+        <v>150</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="11">
-        <f>SUMIF(D5:D12,"전기매트",F5:F12)</f>
-        <v>501120</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="2" t="s">
+      <c r="H14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="2:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="18"/>
+      <c r="J14" s="13">
+        <f>VLOOKUP(H14,B4:H12,6)</f>
+        <v>95</v>
+      </c>
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K17" s="21"/>
+      <c r="K17" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B5:J12">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$G5&lt;=150</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14">
       <formula1>$B$5:$B$12</formula1>
@@ -1261,4 +1418,822 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I22"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="26"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="18">
+        <v>71200</v>
+      </c>
+      <c r="G3" s="14">
+        <v>95</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="18">
+        <v>151260</v>
+      </c>
+      <c r="G4" s="14">
+        <v>190</v>
+      </c>
+      <c r="H4" s="9">
+        <v>43936</v>
+      </c>
+      <c r="I4" s="25"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="18">
+        <v>220760</v>
+      </c>
+      <c r="G5" s="14">
+        <v>350</v>
+      </c>
+      <c r="H5" s="9">
+        <v>44119</v>
+      </c>
+      <c r="I5" s="25"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="18">
+        <v>210000</v>
+      </c>
+      <c r="G6" s="14">
+        <v>75</v>
+      </c>
+      <c r="H6" s="9">
+        <v>44079</v>
+      </c>
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="18">
+        <v>80860</v>
+      </c>
+      <c r="G7" s="14">
+        <v>240</v>
+      </c>
+      <c r="H7" s="9">
+        <v>43711</v>
+      </c>
+      <c r="I7" s="25"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="18">
+        <v>139860</v>
+      </c>
+      <c r="G8" s="14">
+        <v>180</v>
+      </c>
+      <c r="H8" s="9">
+        <v>44156</v>
+      </c>
+      <c r="I8" s="25"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="18">
+        <v>163800</v>
+      </c>
+      <c r="G9" s="14">
+        <v>120</v>
+      </c>
+      <c r="H9" s="9">
+        <v>43746</v>
+      </c>
+      <c r="I9" s="25"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="18">
+        <v>95000</v>
+      </c>
+      <c r="G10" s="14">
+        <v>150</v>
+      </c>
+      <c r="H10" s="9">
+        <v>44093</v>
+      </c>
+      <c r="I10" s="25"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="29">
+        <f>DAVERAGE(B2:H10,5,D2:D3)</f>
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B14" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="18">
+        <v>151260</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="18">
+        <v>220760</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="18">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="18">
+        <v>80860</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B11:G11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B3:I10">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$G3&lt;=150</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" outlineLevel="5" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="18">
+        <v>83300</v>
+      </c>
+      <c r="G3" s="14">
+        <v>95</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" outlineLevel="5" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="18">
+        <v>163800</v>
+      </c>
+      <c r="G4" s="14">
+        <v>120</v>
+      </c>
+      <c r="H4" s="9">
+        <v>43746</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" outlineLevel="5" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="18">
+        <v>95000</v>
+      </c>
+      <c r="G5" s="14">
+        <v>150</v>
+      </c>
+      <c r="H5" s="9">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="18">
+        <f>SUBTOTAL(4,F3:F5)</f>
+        <v>163800</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="2:8" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="18">
+        <f>SUBTOTAL(4,F3:F5)</f>
+        <v>163800</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7">
+        <f>SUBTOTAL(3,C3:C5)</f>
+        <v>3</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="2:8" outlineLevel="5" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="18">
+        <v>151260</v>
+      </c>
+      <c r="G9" s="14">
+        <v>190</v>
+      </c>
+      <c r="H9" s="9">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" outlineLevel="5" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="18">
+        <v>210000</v>
+      </c>
+      <c r="G10" s="14">
+        <v>75</v>
+      </c>
+      <c r="H10" s="9">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" outlineLevel="5" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="18">
+        <v>139860</v>
+      </c>
+      <c r="G11" s="14">
+        <v>180</v>
+      </c>
+      <c r="H11" s="9">
+        <v>44156</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="18">
+        <f>SUBTOTAL(4,F9:F11)</f>
+        <v>210000</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="2:8" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="18">
+        <f>SUBTOTAL(4,F9:F11)</f>
+        <v>210000</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7">
+        <f>SUBTOTAL(3,C9:C11)</f>
+        <v>3</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="2:8" outlineLevel="5" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="18">
+        <v>220760</v>
+      </c>
+      <c r="G15" s="14">
+        <v>350</v>
+      </c>
+      <c r="H15" s="9">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="18">
+        <f>SUBTOTAL(4,F15:F15)</f>
+        <v>220760</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="2:8" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="18">
+        <f>SUBTOTAL(4,F15:F15)</f>
+        <v>220760</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B18" s="6"/>
+      <c r="C18" s="7">
+        <f>SUBTOTAL(3,C15:C15)</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="2:8" outlineLevel="5" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="18">
+        <v>80860</v>
+      </c>
+      <c r="G19" s="14">
+        <v>240</v>
+      </c>
+      <c r="H19" s="9">
+        <v>43711</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="31">
+        <f>SUBTOTAL(4,F19:F19)</f>
+        <v>80860</v>
+      </c>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
+    </row>
+    <row r="21" spans="2:8" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="31">
+        <f>SUBTOTAL(4,F3:F19)</f>
+        <v>220760</v>
+      </c>
+      <c r="G21" s="32"/>
+      <c r="H21" s="33"/>
+    </row>
+    <row r="22" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="31">
+        <f>SUBTOTAL(4,F19:F19)</f>
+        <v>80860</v>
+      </c>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
+    </row>
+    <row r="23" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="25"/>
+      <c r="C23" s="25">
+        <f>SUBTOTAL(3,C19:C19)</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="33"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="31">
+        <f>SUBTOTAL(4,F3:F19)</f>
+        <v>220760</v>
+      </c>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="25"/>
+      <c r="C25" s="25">
+        <f>SUBTOTAL(3,C3:C19)</f>
+        <v>8</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="33"/>
+    </row>
+  </sheetData>
+  <sortState ref="B3:H20">
+    <sortCondition ref="D3:D10" customList="전기요,전기매트,온수매트"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B3:H25">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G3&lt;=150</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>